--- a/biology/Zoologie/Athous/Athous.xlsx
+++ b/biology/Zoologie/Athous/Athous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Athous est un genre d'insectes de l'ordre des coléoptères et de la famille des élatéridés.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces européennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Athous (Athous) cingulatus Miller 1881
 Athous (Athous) densatus Reitter 1905
@@ -701,7 +715,9 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthous corpulentus à Madagascar
 Anthous dahuricus en Dahurie, Mongolie, Sibérie occidentale et orientale et au nord de la Chine</t>
@@ -732,9 +748,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (31 août 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (31 août 2014) :
 Athous bicolor
 Athous haemorrhoidalis
 Athous puncticollis
@@ -743,7 +761,7 @@
 sous-espèce Athous sierrae varius
 Athous subfuscus
 Athous vittatus
-Selon Paleobiology Database                   (31 août 2014)[2] :
+Selon Paleobiology Database                   (31 août 2014) :
 Athous (Athousiomorphus)
 Athous contusus
 Athous fractus
